--- a/Income/DPZ_inc.xlsx
+++ b/Income/DPZ_inc.xlsx
@@ -2042,7 +2042,7 @@
         <v>0.3622</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.3875</v>
+        <v>0.3876</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0.3856</v>
@@ -2166,10 +2166,10 @@
         <v>0.0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.1771</v>
+        <v>0.177</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1756</v>
+        <v>0.1755</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1739</v>
@@ -2296,13 +2296,13 @@
         <v>0.1335</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.135</v>
+        <v>0.1351</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1341</v>
+        <v>0.1342</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.1333</v>
+        <v>0.1334</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0.1295</v>
@@ -2423,7 +2423,7 @@
         <v>0.1178</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.1199</v>
+        <v>0.12</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0.1213</v>
@@ -3603,16 +3603,16 @@
         <v>0.1893</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.1913</v>
+        <v>0.1921</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.1932</v>
+        <v>0.1941</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.1921</v>
+        <v>0.193</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.1909</v>
+        <v>0.1918</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0.1883</v>
